--- a/assets/Questions from web/Q&As  - from -BBACA_502-_Web-Technologies.xlsx
+++ b/assets/Questions from web/Q&As  - from -BBACA_502-_Web-Technologies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reeveschragger/Documents/Bootcamp/Challenges/BC04-02-Code-Quiz/assets/Questions from web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92190054-A9CE-8441-BAB4-D5A77362CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8A095B-02BE-DA47-A473-BE725CD1E0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="4" xr2:uid="{86690AC4-0DBF-0049-BCBA-CC73CA89135E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" activeTab="4" xr2:uid="{86690AC4-0DBF-0049-BCBA-CC73CA89135E}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fix2'!$A$1:$F$205</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">original!$A$1:$H$1073</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67895,7 +67895,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67905,7 +67905,7 @@
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str" cm="1">
         <f t="array" ref="A1:B6">SUBSTITUTE((_xlfn._xlws.FILTER('Fix2'!P:Q,'Fix2'!G:G&lt;&gt;0)),") ","), ")</f>
         <v>Unit</v>
@@ -67914,7 +67914,7 @@
         <v>AnswerGrid</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <v>Unit - 1: Web Essentials</v>
       </c>
@@ -67922,7 +67922,7 @@
         <v>1(c), 2(b), 3(a), 4(a), 5(c), 6(d), 7(c), 8(c), 9(b), 10(a), 11(c), 12(c), 13(c), 14(c), 15(d), 16(c), 17(d), 18(a), 19(b), 20(a), 21(d), 22(a), 23(a), 24(d), 25(c), 26(a), 27(c), 28(a), 29(b), 30(c), 31(a), 32(a), 33(b), 34(a), 35(a), 36(a), 37(c), 38(d), 39(a), 40(a)</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
         <v>Unit - 2: Markup Languages</v>
       </c>
@@ -67930,7 +67930,7 @@
         <v>1(a), 2(d), 3(a), 4(a), 5(b), 6(c), 7(d), 8(d), 9(a), 10(a), 11(a), 12(a), 13(a), 14(a), 15(a), 16(d), 17(b), 18(a), 19(c), 20(a), 21(a), 22(b), 23(b), 24(d), 25(c), 26(c), 27(c), 28(a), 29(a), 30(b), 31(a), 32(b), 33(c), 34(d), 35(a), 36(b), 37(c), 38(d), 39(a), 40(a)</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <v>Unit - 3: JAVA Script</v>
       </c>
@@ -67938,7 +67938,7 @@
         <v>1(c), 2(c), 3(a), 4(c), 5(d), 6(a), 7(d), 8(b), 9(b), 10(c), 11(a), 12(a), 13(d), 14(d), 15(a), 16(a), 17(b), 18(d), 19(c), 20(a), 21(b), 22(c), 23(a), 24(a), 25(a), 26(a), 27(c), 28(d), 29(c), 30(b), 31(a), 32(b), 33(c), 34(a), 35(d), 36(d), 37(a), 38(c), 39(d), 40(a)</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <v>Unit - 4: Function and String in PHP</v>
       </c>
@@ -67946,7 +67946,7 @@
         <v>1(b), 2(a), 3(a), 4(c), 5(d), 6(c), 7(a), 8(c), 9(c), 10(d), a), 12(d), 13(c), 14(a), 15(d), 16(a), 17(d), 18(b), 19(d), 20(b), 21(c), 22(d), 23(a), 24(d), 25(b), 26(a), 27(a), 28(d), 29(d), 30(d), 31(a), 32(a), 33(b), 34(c), 35(a), 36(a), 37(a), 38(a), 39(a), 40(d)</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <v>Unit - 5 Arrays in PHP</v>
       </c>
